--- a/QMU/MC2.0/test2.xlsx
+++ b/QMU/MC2.0/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\MC2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D79A6A0-338D-45A4-A3F9-97BD8F4AFD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A57BB-2ADA-4AB1-9AB3-B5BE651F67AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1920" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="1140" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="D1" sqref="D1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -360,10 +360,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -371,13 +371,13 @@
         <v>1.4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -385,10 +385,10 @@
         <v>1.5</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -399,13 +399,13 @@
         <v>1.6</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -413,13 +413,13 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
